--- a/Base_depurada.xlsx
+++ b/Base_depurada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive - UNIVERSIDAD DE CUNDINAMARCA\ANA_OF_DE_SERSALD\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389260F8-4300-4A64-B027-638A761188FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5450F1-4316-41CC-90EE-B5A55E345F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E917D61D-A2FA-474D-A4F3-03683E55CB6F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E917D61D-A2FA-474D-A4F3-03683E55CB6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Diana" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Libro_Codigos" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diana!$A$1:$AQ$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diana!$A$1:$AK$192</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Jueces!$A$1:$AK$153</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="1754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="1754">
   <si>
     <t>Juntar las pastillas</t>
   </si>
@@ -5958,15 +5958,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B2AEF1-F570-4E91-ACB0-53B641887E0C}">
-  <dimension ref="A1:AQ192"/>
+  <dimension ref="A1:AK192"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D208" sqref="D208"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1694</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6179,11 +6179,8 @@
       <c r="AJ2" t="s">
         <v>1686</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>1708</v>
-      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6278,7 +6275,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -6376,7 +6373,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -6477,7 +6474,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -6581,7 +6578,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
@@ -6688,7 +6685,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9</v>
       </c>
@@ -6795,7 +6792,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -6899,7 +6896,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11</v>
       </c>
@@ -7003,7 +7000,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12</v>
       </c>
@@ -7086,7 +7083,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>13</v>
       </c>
@@ -7190,7 +7187,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
@@ -7297,7 +7294,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>15</v>
       </c>
@@ -7401,7 +7398,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16</v>
       </c>
@@ -7505,7 +7502,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>17</v>
       </c>
@@ -25443,18 +25440,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ192" xr:uid="{42B2AEF1-F570-4E91-ACB0-53B641887E0C}"/>
+  <autoFilter ref="A1:AK192" xr:uid="{42B2AEF1-F570-4E91-ACB0-53B641887E0C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC418EF8-B358-4EF3-A829-EAEDB25D6FE6}">
-  <dimension ref="A1:AW153"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AK153"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25468,7 +25467,7 @@
     <col min="36" max="36" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1694</v>
       </c>
@@ -25580,11 +25579,8 @@
       <c r="AK1" t="s">
         <v>1728</v>
       </c>
-      <c r="AW1" t="s">
-        <v>1708</v>
-      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -25691,7 +25687,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>112</v>
       </c>
@@ -25804,7 +25800,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>114</v>
       </c>
@@ -25905,7 +25901,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>115</v>
       </c>
@@ -26015,7 +26011,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>116</v>
       </c>
@@ -26107,7 +26103,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>117</v>
       </c>
@@ -26214,7 +26210,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>118</v>
       </c>
@@ -26327,7 +26323,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>100</v>
       </c>
@@ -26434,7 +26430,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>121</v>
       </c>
@@ -26538,7 +26534,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>130</v>
       </c>
@@ -26630,7 +26626,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>112</v>
       </c>
@@ -26743,7 +26739,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>131</v>
       </c>
@@ -26847,7 +26843,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>114</v>
       </c>
@@ -26948,7 +26944,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>115</v>
       </c>
@@ -27055,7 +27051,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>116</v>
       </c>
@@ -27147,7 +27143,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>117</v>
       </c>
@@ -27248,7 +27244,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>118</v>
       </c>
@@ -27358,7 +27354,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>121</v>
       </c>
@@ -27462,7 +27458,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>130</v>
       </c>
@@ -27554,7 +27550,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>131</v>
       </c>
@@ -27658,7 +27654,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>132</v>
       </c>
@@ -27756,7 +27752,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>133</v>
       </c>
@@ -27857,7 +27853,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>135</v>
       </c>
@@ -27958,7 +27954,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>136</v>
       </c>
@@ -28050,7 +28046,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>137</v>
       </c>
@@ -28151,7 +28147,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>138</v>
       </c>
@@ -28258,7 +28254,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>141</v>
       </c>
@@ -28359,7 +28355,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>143</v>
       </c>
@@ -28466,7 +28462,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>145</v>
       </c>
@@ -28576,7 +28572,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>132</v>
       </c>
@@ -28674,7 +28670,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>133</v>
       </c>
@@ -28775,7 +28771,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>135</v>
       </c>
@@ -28876,7 +28872,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>146</v>
       </c>
@@ -28974,7 +28970,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>147</v>
       </c>
@@ -29063,7 +29059,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>148</v>
       </c>
@@ -29173,7 +29169,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>149</v>
       </c>
@@ -29283,7 +29279,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>150</v>
       </c>
@@ -29387,7 +29383,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>136</v>
       </c>
@@ -29479,7 +29475,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>137</v>
       </c>
@@ -29580,7 +29576,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>138</v>
       </c>
@@ -29693,7 +29689,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>141</v>
       </c>
@@ -29800,7 +29796,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>143</v>
       </c>
@@ -29907,7 +29903,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>145</v>
       </c>
@@ -30020,7 +30016,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>146</v>
       </c>
@@ -30115,7 +30111,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>151</v>
       </c>
@@ -30222,7 +30218,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>155</v>
       </c>
@@ -30335,7 +30331,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>157</v>
       </c>
@@ -30528,7 +30524,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>147</v>
       </c>
@@ -30617,7 +30613,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>159</v>
       </c>
@@ -30724,7 +30720,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>163</v>
       </c>
@@ -30816,7 +30812,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>164</v>
       </c>
@@ -30917,7 +30913,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>166</v>
       </c>
@@ -31024,7 +31020,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>167</v>
       </c>
@@ -31137,7 +31133,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>168</v>
       </c>
@@ -31229,7 +31225,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>169</v>
       </c>
@@ -31321,7 +31317,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>174</v>
       </c>
@@ -31413,7 +31409,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>177</v>
       </c>
@@ -31520,7 +31516,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>190</v>
       </c>
@@ -31624,7 +31620,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>148</v>
       </c>
@@ -31734,7 +31730,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>149</v>
       </c>
@@ -31847,7 +31843,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>150</v>
       </c>
@@ -31951,7 +31947,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>151</v>
       </c>
@@ -32061,7 +32057,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>155</v>
       </c>
@@ -32174,7 +32170,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>157</v>
       </c>
@@ -32367,7 +32363,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>159</v>
       </c>
@@ -32474,7 +32470,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>164</v>
       </c>
@@ -32578,7 +32574,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>163</v>
       </c>
@@ -32670,7 +32666,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>166</v>
       </c>
@@ -32780,7 +32776,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>167</v>
       </c>
@@ -32893,7 +32889,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>168</v>
       </c>
@@ -32985,7 +32981,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>169</v>
       </c>
@@ -33077,7 +33073,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>174</v>
       </c>
@@ -33169,7 +33165,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>177</v>
       </c>
@@ -33276,7 +33272,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>190</v>
       </c>
@@ -33380,7 +33376,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>100</v>
       </c>
@@ -33487,7 +33483,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>112</v>
       </c>
@@ -33600,7 +33596,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>114</v>
       </c>
@@ -33701,7 +33697,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>115</v>
       </c>
@@ -33808,7 +33804,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>116</v>
       </c>
@@ -33903,7 +33899,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>117</v>
       </c>
@@ -34007,7 +34003,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>118</v>
       </c>
@@ -34114,7 +34110,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>121</v>
       </c>
@@ -34218,7 +34214,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>130</v>
       </c>
@@ -34310,7 +34306,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>131</v>
       </c>
@@ -34414,7 +34410,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>132</v>
       </c>
@@ -34512,7 +34508,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>133</v>
       </c>
@@ -34613,7 +34609,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>135</v>
       </c>
@@ -34714,7 +34710,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>136</v>
       </c>
@@ -34806,7 +34802,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>137</v>
       </c>
@@ -34910,7 +34906,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>138</v>
       </c>
@@ -35017,7 +35013,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>141</v>
       </c>
@@ -35124,7 +35120,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>143</v>
       </c>
@@ -35231,7 +35227,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>145</v>
       </c>
@@ -35341,7 +35337,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>146</v>
       </c>
@@ -35436,7 +35432,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>147</v>
       </c>
@@ -35525,7 +35521,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>148</v>
       </c>
@@ -35635,7 +35631,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>149</v>
       </c>
@@ -35748,7 +35744,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>150</v>
       </c>
@@ -35852,7 +35848,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>151</v>
       </c>
@@ -35962,7 +35958,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>155</v>
       </c>
@@ -36075,7 +36071,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>157</v>
       </c>
@@ -36268,7 +36264,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>159</v>
       </c>
@@ -36375,7 +36371,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>163</v>
       </c>
@@ -36470,7 +36466,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>164</v>
       </c>
@@ -36571,7 +36567,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>166</v>
       </c>
@@ -36675,7 +36671,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>167</v>
       </c>
@@ -36788,7 +36784,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>168</v>
       </c>
@@ -36880,7 +36876,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>169</v>
       </c>
@@ -36972,7 +36968,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>174</v>
       </c>
@@ -37064,7 +37060,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>177</v>
       </c>
@@ -37171,7 +37167,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>190</v>
       </c>
@@ -37275,7 +37271,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>121</v>
       </c>
@@ -37382,7 +37378,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>112</v>
       </c>
@@ -37489,7 +37485,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>114</v>
       </c>
@@ -37590,7 +37586,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>115</v>
       </c>
@@ -37700,7 +37696,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>116</v>
       </c>
@@ -37792,7 +37788,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>117</v>
       </c>
@@ -37899,7 +37895,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>118</v>
       </c>
@@ -38009,7 +38005,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>130</v>
       </c>
@@ -38101,7 +38097,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>131</v>
       </c>
@@ -38202,7 +38198,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>132</v>
       </c>
@@ -38294,7 +38290,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>133</v>
       </c>
@@ -38395,7 +38391,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>135</v>
       </c>
@@ -38499,7 +38495,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>136</v>
       </c>
@@ -38588,7 +38584,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>137</v>
       </c>
@@ -38692,7 +38688,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>138</v>
       </c>
@@ -38805,7 +38801,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>141</v>
       </c>
@@ -38912,7 +38908,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>143</v>
       </c>
@@ -39019,7 +39015,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>145</v>
       </c>
@@ -39129,7 +39125,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>146</v>
       </c>
@@ -39224,7 +39220,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>147</v>
       </c>
@@ -39313,7 +39309,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>148</v>
       </c>
@@ -39417,7 +39413,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>149</v>
       </c>
@@ -39524,7 +39520,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>150</v>
       </c>
@@ -39628,7 +39624,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>151</v>
       </c>
@@ -39738,7 +39734,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>155</v>
       </c>
@@ -39845,7 +39841,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>157</v>
       </c>
@@ -40041,7 +40037,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>159</v>
       </c>
@@ -40148,7 +40144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>163</v>
       </c>
@@ -40237,7 +40233,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>164</v>
       </c>
@@ -40344,7 +40340,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>166</v>
       </c>
@@ -40454,7 +40450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>167</v>
       </c>
@@ -40564,7 +40560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>168</v>
       </c>
@@ -40656,7 +40652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>169</v>
       </c>
@@ -40748,7 +40744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>174</v>
       </c>
@@ -40837,7 +40833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>177</v>
       </c>
@@ -40944,7 +40940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>190</v>
       </c>
@@ -41045,7 +41041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>100</v>
       </c>
@@ -41153,7 +41149,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK153" xr:uid="{3D559AC0-6FCE-461D-BEBB-2AF46ECD29A4}"/>
+  <autoFilter ref="A1:AK153" xr:uid="{3D559AC0-6FCE-461D-BEBB-2AF46ECD29A4}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -41164,8 +41166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C013BE8-B750-4976-B161-53D9076E3F4F}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
